--- a/biology/Botanique/Matoniaceae/Matoniaceae.xlsx
+++ b/biology/Botanique/Matoniaceae/Matoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Matoniaceae sont l'une des trois familles de fougères de l'ordre des Gleicheniales de la classe Polypodiopsida[1],[2],[3]. Les archives fossiles révèlent que les fougères Matoniaceae étaient abondantes pendant l'ère mésozoïque (il y a environ 250 millions à 66 millions d'années), au cours de laquelle elles vivaient sur tous les continents, y compris l'Antarctique, avec huit genres et 26 espèces, les plus anciens spécimens connus étant du Trias moyen de l'Antarctique[4]. Aujourd'hui, la famille est beaucoup moins abondante, et aussi moins diversifiée, avec seulement deux genres existants et quatre espèces[5], qui sont limitées à des parties de l'Asie du sud-est[6].
-Le diagramme suivant montre une relation phylogénique probable avec les deux autres familles des Gleicheniales[7] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Matoniaceae sont l'une des trois familles de fougères de l'ordre des Gleicheniales de la classe Polypodiopsida. Les archives fossiles révèlent que les fougères Matoniaceae étaient abondantes pendant l'ère mésozoïque (il y a environ 250 millions à 66 millions d'années), au cours de laquelle elles vivaient sur tous les continents, y compris l'Antarctique, avec huit genres et 26 espèces, les plus anciens spécimens connus étant du Trias moyen de l'Antarctique. Aujourd'hui, la famille est beaucoup moins abondante, et aussi moins diversifiée, avec seulement deux genres existants et quatre espèces, qui sont limitées à des parties de l'Asie du sud-est.
+Le diagramme suivant montre une relation phylogénique probable avec les deux autres familles des Gleicheniales :
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Matonia nommé par le botaniste Robert Brown en hommage au médecin et naturaliste britannique William George Maton  (1774-1835), membre du Royal College of Physicians.
 </t>
@@ -543,7 +557,9 @@
           <t>Espèces existantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>genre Matonia, R.Br. ex' Wall., 1829
 espèce Matonia pectinata, R. Br., 1829
@@ -578,7 +594,9 @@
           <t>Espèces mésozoiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Quelques genres communs de Matoniaceae du mésozoïques et un échantillonnage de leurs espèces :
 genre Laccopteri, Presl, 1838
@@ -591,7 +609,7 @@
 Phlebopteris utensis,
 Phlebopteris angustiloba,
 genre Matonidium,
-genre Matonia, R.Br. ex Wall. 1829[8]
+genre Matonia, R.Br. ex Wall. 1829
 Matonia jeffersonii,
 Matonia pectinata,
 Matonia braunii,
